--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Bgn-Tlr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Bgn-Tlr2.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>38.718679</v>
+        <v>90.36280833333332</v>
       </c>
       <c r="H2">
-        <v>116.156037</v>
+        <v>271.088425</v>
       </c>
       <c r="I2">
-        <v>0.01404461724059496</v>
+        <v>0.03168888268931816</v>
       </c>
       <c r="J2">
-        <v>0.01404461724059496</v>
+        <v>0.03168888268931816</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>44.04866033333334</v>
+        <v>1.417175333333333</v>
       </c>
       <c r="N2">
-        <v>132.145981</v>
+        <v>4.251526</v>
       </c>
       <c r="O2">
-        <v>0.3636142564479216</v>
+        <v>0.02388929759887871</v>
       </c>
       <c r="P2">
-        <v>0.3636142564479216</v>
+        <v>0.02388929759887871</v>
       </c>
       <c r="Q2">
-        <v>1705.505939826367</v>
+        <v>128.0599430207278</v>
       </c>
       <c r="R2">
-        <v>15349.5534584373</v>
+        <v>1152.53948718655</v>
       </c>
       <c r="S2">
-        <v>0.005106823055034598</v>
+        <v>0.0007570251491410773</v>
       </c>
       <c r="T2">
-        <v>0.005106823055034598</v>
+        <v>0.0007570251491410773</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>38.718679</v>
+        <v>90.36280833333332</v>
       </c>
       <c r="H3">
-        <v>116.156037</v>
+        <v>271.088425</v>
       </c>
       <c r="I3">
-        <v>0.01404461724059496</v>
+        <v>0.03168888268931816</v>
       </c>
       <c r="J3">
-        <v>0.01404461724059496</v>
+        <v>0.03168888268931816</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>6.678962</v>
       </c>
       <c r="O3">
-        <v>0.01837790134135009</v>
+        <v>0.0375290450698413</v>
       </c>
       <c r="P3">
-        <v>0.01837790134135009</v>
+        <v>0.03752904506984131</v>
       </c>
       <c r="Q3">
-        <v>86.20019524373267</v>
+        <v>201.1765876905389</v>
       </c>
       <c r="R3">
-        <v>775.801757193594</v>
+        <v>1810.58928921485</v>
       </c>
       <c r="S3">
-        <v>0.0002581105900246787</v>
+        <v>0.001189253506660335</v>
       </c>
       <c r="T3">
-        <v>0.0002581105900246787</v>
+        <v>0.001189253506660335</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>38.718679</v>
+        <v>90.36280833333332</v>
       </c>
       <c r="H4">
-        <v>116.156037</v>
+        <v>271.088425</v>
       </c>
       <c r="I4">
-        <v>0.01404461724059496</v>
+        <v>0.03168888268931816</v>
       </c>
       <c r="J4">
-        <v>0.01404461724059496</v>
+        <v>0.03168888268931816</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>74.86619966666667</v>
+        <v>55.67910766666667</v>
       </c>
       <c r="N4">
-        <v>224.598599</v>
+        <v>167.037323</v>
       </c>
       <c r="O4">
-        <v>0.6180078422107282</v>
+        <v>0.93858165733128</v>
       </c>
       <c r="P4">
-        <v>0.6180078422107284</v>
+        <v>0.93858165733128</v>
       </c>
       <c r="Q4">
-        <v>2898.720352843574</v>
+        <v>5031.32053425403</v>
       </c>
       <c r="R4">
-        <v>26088.48317559217</v>
+        <v>45281.88480828628</v>
       </c>
       <c r="S4">
-        <v>0.008679683595535686</v>
+        <v>0.02974260403351675</v>
       </c>
       <c r="T4">
-        <v>0.008679683595535687</v>
+        <v>0.02974260403351675</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,40 +729,40 @@
         <v>7534.194336999999</v>
       </c>
       <c r="I5">
-        <v>0.9109718135392577</v>
+        <v>0.8807096817347263</v>
       </c>
       <c r="J5">
-        <v>0.9109718135392579</v>
+        <v>0.8807096817347263</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>44.04866033333334</v>
+        <v>1.417175333333333</v>
       </c>
       <c r="N5">
-        <v>132.145981</v>
+        <v>4.251526</v>
       </c>
       <c r="O5">
-        <v>0.3636142564479216</v>
+        <v>0.02388929759887871</v>
       </c>
       <c r="P5">
-        <v>0.3636142564479216</v>
+        <v>0.02388929759887871</v>
       </c>
       <c r="Q5">
-        <v>110623.7224119455</v>
+        <v>3559.091456978696</v>
       </c>
       <c r="R5">
-        <v>995613.5017075095</v>
+        <v>32031.82311280826</v>
       </c>
       <c r="S5">
-        <v>0.3312423386250918</v>
+        <v>0.02103953568517463</v>
       </c>
       <c r="T5">
-        <v>0.3312423386250919</v>
+        <v>0.02103953568517463</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>7534.194336999999</v>
       </c>
       <c r="I6">
-        <v>0.9109718135392577</v>
+        <v>0.8807096817347263</v>
       </c>
       <c r="J6">
-        <v>0.9109718135392579</v>
+        <v>0.8807096817347263</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,10 +809,10 @@
         <v>6.678962</v>
       </c>
       <c r="O6">
-        <v>0.01837790134135009</v>
+        <v>0.0375290450698413</v>
       </c>
       <c r="P6">
-        <v>0.01837790134135009</v>
+        <v>0.03752904506984131</v>
       </c>
       <c r="Q6">
         <v>5591.177519715354</v>
@@ -821,10 +821,10 @@
         <v>50320.59767743819</v>
       </c>
       <c r="S6">
-        <v>0.01674175011397525</v>
+        <v>0.03305219333926813</v>
       </c>
       <c r="T6">
-        <v>0.01674175011397525</v>
+        <v>0.03305219333926814</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>7534.194336999999</v>
       </c>
       <c r="I7">
-        <v>0.9109718135392577</v>
+        <v>0.8807096817347263</v>
       </c>
       <c r="J7">
-        <v>0.9109718135392579</v>
+        <v>0.8807096817347263</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>74.86619966666667</v>
+        <v>55.67910766666667</v>
       </c>
       <c r="N7">
-        <v>224.598599</v>
+        <v>167.037323</v>
       </c>
       <c r="O7">
-        <v>0.6180078422107282</v>
+        <v>0.93858165733128</v>
       </c>
       <c r="P7">
-        <v>0.6180078422107284</v>
+        <v>0.93858165733128</v>
       </c>
       <c r="Q7">
-        <v>188018.8325204371</v>
+        <v>139832.4058904711</v>
       </c>
       <c r="R7">
-        <v>1692169.492683934</v>
+        <v>1258491.65301424</v>
       </c>
       <c r="S7">
-        <v>0.5629877248001905</v>
+        <v>0.8266179527102835</v>
       </c>
       <c r="T7">
-        <v>0.5629877248001908</v>
+        <v>0.8266179527102835</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,46 +909,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>201.6251223333333</v>
+        <v>240.3144276666667</v>
       </c>
       <c r="H8">
-        <v>604.875367</v>
+        <v>720.9432830000001</v>
       </c>
       <c r="I8">
-        <v>0.07313647423921157</v>
+        <v>0.08427466838777388</v>
       </c>
       <c r="J8">
-        <v>0.07313647423921157</v>
+        <v>0.08427466838777387</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>44.04866033333334</v>
+        <v>1.417175333333333</v>
       </c>
       <c r="N8">
-        <v>132.145981</v>
+        <v>4.251526</v>
       </c>
       <c r="O8">
-        <v>0.3636142564479216</v>
+        <v>0.02388929759887871</v>
       </c>
       <c r="P8">
-        <v>0.3636142564479216</v>
+        <v>0.02388929759887871</v>
       </c>
       <c r="Q8">
-        <v>8881.316528327781</v>
+        <v>340.5676791333176</v>
       </c>
       <c r="R8">
-        <v>79931.84875495003</v>
+        <v>3065.109112199858</v>
       </c>
       <c r="S8">
-        <v>0.02659346469971349</v>
+        <v>0.002013262633162346</v>
       </c>
       <c r="T8">
-        <v>0.02659346469971349</v>
+        <v>0.002013262633162346</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>201.6251223333333</v>
+        <v>240.3144276666667</v>
       </c>
       <c r="H9">
-        <v>604.875367</v>
+        <v>720.9432830000001</v>
       </c>
       <c r="I9">
-        <v>0.07313647423921157</v>
+        <v>0.08427466838777388</v>
       </c>
       <c r="J9">
-        <v>0.07313647423921157</v>
+        <v>0.08427466838777387</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,22 +995,22 @@
         <v>6.678962</v>
       </c>
       <c r="O9">
-        <v>0.01837790134135009</v>
+        <v>0.0375290450698413</v>
       </c>
       <c r="P9">
-        <v>0.01837790134135009</v>
+        <v>0.03752904506984131</v>
       </c>
       <c r="Q9">
-        <v>448.8821767698949</v>
+        <v>535.0169768124719</v>
       </c>
       <c r="R9">
-        <v>4039.939590929054</v>
+        <v>4815.152791312246</v>
       </c>
       <c r="S9">
-        <v>0.001344094908022422</v>
+        <v>0.003162747828170696</v>
       </c>
       <c r="T9">
-        <v>0.001344094908022422</v>
+        <v>0.003162747828170696</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>201.6251223333333</v>
+        <v>240.3144276666667</v>
       </c>
       <c r="H10">
-        <v>604.875367</v>
+        <v>720.9432830000001</v>
       </c>
       <c r="I10">
-        <v>0.07313647423921157</v>
+        <v>0.08427466838777388</v>
       </c>
       <c r="J10">
-        <v>0.07313647423921157</v>
+        <v>0.08427466838777387</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>74.86619966666667</v>
+        <v>55.67910766666667</v>
       </c>
       <c r="N10">
-        <v>224.598599</v>
+        <v>167.037323</v>
       </c>
       <c r="O10">
-        <v>0.6180078422107282</v>
+        <v>0.93858165733128</v>
       </c>
       <c r="P10">
-        <v>0.6180078422107284</v>
+        <v>0.93858165733128</v>
       </c>
       <c r="Q10">
-        <v>15094.90666642343</v>
+        <v>13380.49289190571</v>
       </c>
       <c r="R10">
-        <v>135854.1599978108</v>
+        <v>120424.4360271514</v>
       </c>
       <c r="S10">
-        <v>0.04519891463147566</v>
+        <v>0.07909865792644083</v>
       </c>
       <c r="T10">
-        <v>0.04519891463147566</v>
+        <v>0.07909865792644082</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,46 +1095,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.092134333333333</v>
+        <v>9.486482333333333</v>
       </c>
       <c r="H11">
-        <v>15.276403</v>
+        <v>28.459447</v>
       </c>
       <c r="I11">
-        <v>0.001847094980935658</v>
+        <v>0.003326767188181744</v>
       </c>
       <c r="J11">
-        <v>0.001847094980935659</v>
+        <v>0.003326767188181744</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>44.04866033333334</v>
+        <v>1.417175333333333</v>
       </c>
       <c r="N11">
-        <v>132.145981</v>
+        <v>4.251526</v>
       </c>
       <c r="O11">
-        <v>0.3636142564479216</v>
+        <v>0.02388929759887871</v>
       </c>
       <c r="P11">
-        <v>0.3636142564479216</v>
+        <v>0.02388929759887871</v>
       </c>
       <c r="Q11">
-        <v>224.3016956207048</v>
+        <v>13.44400876290245</v>
       </c>
       <c r="R11">
-        <v>2018.715260586343</v>
+        <v>120.996078866122</v>
       </c>
       <c r="S11">
-        <v>0.0006716300680816073</v>
+        <v>7.947413140065862E-05</v>
       </c>
       <c r="T11">
-        <v>0.0006716300680816073</v>
+        <v>7.947413140065862E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.092134333333333</v>
+        <v>9.486482333333333</v>
       </c>
       <c r="H12">
-        <v>15.276403</v>
+        <v>28.459447</v>
       </c>
       <c r="I12">
-        <v>0.001847094980935658</v>
+        <v>0.003326767188181744</v>
       </c>
       <c r="J12">
-        <v>0.001847094980935659</v>
+        <v>0.003326767188181744</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,22 +1181,22 @@
         <v>6.678962</v>
       </c>
       <c r="O12">
-        <v>0.01837790134135009</v>
+        <v>0.0375290450698413</v>
       </c>
       <c r="P12">
-        <v>0.01837790134135009</v>
+        <v>0.03752904506984131</v>
       </c>
       <c r="Q12">
-        <v>11.33672390374289</v>
+        <v>21.11995167266822</v>
       </c>
       <c r="R12">
-        <v>102.030515133686</v>
+        <v>190.079565054014</v>
       </c>
       <c r="S12">
-        <v>3.394572932773845E-05</v>
+        <v>0.0001248503957421419</v>
       </c>
       <c r="T12">
-        <v>3.394572932773845E-05</v>
+        <v>0.0001248503957421419</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.092134333333333</v>
+        <v>9.486482333333333</v>
       </c>
       <c r="H13">
-        <v>15.276403</v>
+        <v>28.459447</v>
       </c>
       <c r="I13">
-        <v>0.001847094980935658</v>
+        <v>0.003326767188181744</v>
       </c>
       <c r="J13">
-        <v>0.001847094980935659</v>
+        <v>0.003326767188181744</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>74.86619966666667</v>
+        <v>55.67910766666667</v>
       </c>
       <c r="N13">
-        <v>224.598599</v>
+        <v>167.037323</v>
       </c>
       <c r="O13">
-        <v>0.6180078422107282</v>
+        <v>0.93858165733128</v>
       </c>
       <c r="P13">
-        <v>0.6180078422107284</v>
+        <v>0.93858165733128</v>
       </c>
       <c r="Q13">
-        <v>381.2287457288219</v>
+        <v>528.1988712155979</v>
       </c>
       <c r="R13">
-        <v>3431.058711559398</v>
+        <v>4753.789840940382</v>
       </c>
       <c r="S13">
-        <v>0.001141519183526312</v>
+        <v>0.003122442661038944</v>
       </c>
       <c r="T13">
-        <v>0.001141519183526313</v>
+        <v>0.003122442661038944</v>
       </c>
     </row>
   </sheetData>
